--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMA\SMA\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A7991B-0DDB-4C04-8930-8DDA67B7D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75EE9AC-25DB-4737-A113-94879C417665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>test@test.com</t>
   </si>
   <si>
-    <t>https://www.tiktok.com/@selly,https://www.tiktok.com/@elianmita</t>
+    <t>https://www.tiktok.com/@elianmita,https://www.tiktok.com/@selly</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMA\SMA\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A7991B-0DDB-4C04-8930-8DDA67B7D05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7C171-0869-44CA-803E-0E700B5C194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -51,10 +48,10 @@
     <t>EmailRecipient</t>
   </si>
   <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
     <t>https://www.tiktok.com/@selly,https://www.tiktok.com/@elianmita</t>
+  </si>
+  <si>
+    <t>davidic87@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -386,16 +383,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,15 +400,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -419,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -427,7 +424,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -435,12 +432,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smav2\SocialMediaAnalyser\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documente\UiPath\SocialMediaAnalyser\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75EE9AC-25DB-4737-A113-94879C417665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439E5E8-069D-4BFF-8342-7BFAC58064F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -51,10 +48,10 @@
     <t>EmailRecipient</t>
   </si>
   <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
     <t>https://www.tiktok.com/@elianmita,https://www.tiktok.com/@selly</t>
+  </si>
+  <si>
+    <t>george-marius.ecobescu@s.unibuc.ro</t>
   </si>
 </sst>
 </file>
@@ -386,16 +383,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,15 +400,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -419,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -427,7 +424,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -435,12 +432,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
